--- a/Supplementary_material_publication_2.xlsx
+++ b/Supplementary_material_publication_2.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018la001\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\midingoy\Documents\GitHub\supplementary_material_pub2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Caution" sheetId="1" r:id="rId1"/>
     <sheet name="Urban" sheetId="2" r:id="rId2"/>
     <sheet name="Rural" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rural!$A$1:$P$103</definedName>
@@ -5493,16 +5494,16 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>418</v>
       </c>
@@ -5512,7 +5513,7 @@
       <c r="E2" s="82"/>
       <c r="F2" s="82"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
       <c r="B3" s="82"/>
       <c r="C3" s="82"/>
@@ -5520,7 +5521,7 @@
       <c r="E3" s="82"/>
       <c r="F3" s="82"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="82"/>
       <c r="B4" s="82"/>
       <c r="C4" s="82"/>
@@ -5528,7 +5529,7 @@
       <c r="E4" s="82"/>
       <c r="F4" s="82"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
@@ -5536,7 +5537,7 @@
       <c r="E5" s="82"/>
       <c r="F5" s="82"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
       <c r="B6" s="82"/>
       <c r="C6" s="82"/>
@@ -5544,7 +5545,7 @@
       <c r="E6" s="82"/>
       <c r="F6" s="82"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="82"/>
       <c r="B7" s="82"/>
       <c r="C7" s="82"/>
@@ -5552,7 +5553,7 @@
       <c r="E7" s="82"/>
       <c r="F7" s="82"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="82"/>
       <c r="B8" s="82"/>
       <c r="C8" s="82"/>
@@ -5580,25 +5581,26 @@
       <selection activeCell="C2" sqref="C2:C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7265625" style="8" customWidth="1"/>
-    <col min="2" max="3" width="22.1796875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" style="14" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="35.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.90625" style="46"/>
+    <col min="1" max="1" width="56.7109375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="14" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="35.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="16384" width="10.85546875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="80" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" s="80" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
@@ -5654,7 +5656,7 @@
       <c r="U1" s="79"/>
       <c r="V1" s="79"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -5758,7 +5760,7 @@
         <v>1.11106259988736</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -5808,7 +5810,7 @@
         <v>2.2604232529833999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -5858,7 +5860,7 @@
         <v>0.80282191936947001</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -5908,7 +5910,7 @@
         <v>0.95594986251435998</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>138</v>
       </c>
@@ -5958,7 +5960,7 @@
         <v>0.45816054904548997</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>234</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>0.57686042970874996</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>236</v>
       </c>
@@ -6058,7 +6060,7 @@
         <v>1.4343525182285699</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>16</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>20</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>2.6902161167049399</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>22</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>2.3779818302112501</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>32</v>
       </c>
@@ -6262,7 +6264,7 @@
         <v>1.3186582286197499</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>3.2617020431107702</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>38</v>
       </c>
@@ -6362,7 +6364,7 @@
         <v>2.89314618053031</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>48</v>
       </c>
@@ -6412,7 +6414,7 @@
         <v>1.9037023432114399</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>50</v>
       </c>
@@ -6462,7 +6464,7 @@
         <v>2.6734255615182101</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>52</v>
       </c>
@@ -6513,7 +6515,7 @@
       </c>
       <c r="Q18" s="46"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>82</v>
       </c>
@@ -6564,7 +6566,7 @@
       </c>
       <c r="Q19" s="46"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>98</v>
       </c>
@@ -6614,7 +6616,7 @@
         <v>1.4011021919961799</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>108</v>
       </c>
@@ -6664,7 +6666,7 @@
         <v>1.2376970756474199</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>128</v>
       </c>
@@ -6714,7 +6716,7 @@
         <v>1.8511842718081</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>132</v>
       </c>
@@ -6764,7 +6766,7 @@
         <v>1.2899844433805401</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>134</v>
       </c>
@@ -6814,7 +6816,7 @@
         <v>3.7139723523785899</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>140</v>
       </c>
@@ -6864,7 +6866,7 @@
         <v>1.6851610532802199</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>164</v>
       </c>
@@ -6914,7 +6916,7 @@
         <v>0.75226703833512998</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>184</v>
       </c>
@@ -6964,7 +6966,7 @@
         <v>0.80758883918497004</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>186</v>
       </c>
@@ -7014,7 +7016,7 @@
         <v>0.97570343194882003</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>238</v>
       </c>
@@ -7064,7 +7066,7 @@
         <v>1.6731619768847501</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>18</v>
       </c>
@@ -7118,7 +7120,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>24</v>
       </c>
@@ -7168,7 +7170,7 @@
         <v>3.3370998228091802</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>28</v>
       </c>
@@ -7218,7 +7220,7 @@
         <v>7.5100948030856802</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>40</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>6.4289366914999304</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>42</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>3.4646114547434101</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>46</v>
       </c>
@@ -7374,7 +7376,7 @@
       <c r="U35" s="46"/>
       <c r="V35" s="46"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>54</v>
       </c>
@@ -7430,7 +7432,7 @@
       <c r="U36" s="46"/>
       <c r="V36" s="46"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>84</v>
       </c>
@@ -7486,7 +7488,7 @@
       <c r="U37" s="46"/>
       <c r="V37" s="46"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>88</v>
       </c>
@@ -7542,7 +7544,7 @@
       <c r="U38" s="46"/>
       <c r="V38" s="46"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>90</v>
       </c>
@@ -7598,7 +7600,7 @@
       <c r="U39" s="46"/>
       <c r="V39" s="46"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>106</v>
       </c>
@@ -7654,7 +7656,7 @@
       <c r="U40" s="46"/>
       <c r="V40" s="46"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>110</v>
       </c>
@@ -7710,7 +7712,7 @@
       <c r="U41" s="46"/>
       <c r="V41" s="46"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>126</v>
       </c>
@@ -7766,7 +7768,7 @@
       <c r="U42" s="46"/>
       <c r="V42" s="46"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>130</v>
       </c>
@@ -7822,7 +7824,7 @@
       <c r="U43" s="46"/>
       <c r="V43" s="46"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>136</v>
       </c>
@@ -7872,7 +7874,7 @@
         <v>2.61362686347544</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>142</v>
       </c>
@@ -7922,7 +7924,7 @@
         <v>2.8123003400515798</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="s">
         <v>146</v>
       </c>
@@ -7972,7 +7974,7 @@
         <v>2.84906058266054</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
         <v>154</v>
       </c>
@@ -8022,7 +8024,7 @@
         <v>1.7992745417762901</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
         <v>166</v>
       </c>
@@ -8072,7 +8074,7 @@
         <v>2.5952521617022501</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
         <v>170</v>
       </c>
@@ -8122,7 +8124,7 @@
         <v>1.1321778449644</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>188</v>
       </c>
@@ -8172,7 +8174,7 @@
         <v>3.4276584257112201</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="s">
         <v>212</v>
       </c>
@@ -8222,7 +8224,7 @@
         <v>2.50418819853643</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="41" t="s">
         <v>230</v>
       </c>
@@ -8272,7 +8274,7 @@
         <v>1.85518298844716</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>26</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>44</v>
       </c>
@@ -8376,7 +8378,7 @@
         <v>4.5337272731517801</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>56</v>
       </c>
@@ -8426,7 +8428,7 @@
         <v>2.7074371716508501</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>58</v>
       </c>
@@ -8476,7 +8478,7 @@
         <v>4.5147080409979097</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>62</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>1.96672269359972</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>86</v>
       </c>
@@ -8577,7 +8579,7 @@
       </c>
       <c r="Q58" s="20"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>92</v>
       </c>
@@ -8628,7 +8630,7 @@
       </c>
       <c r="Q59" s="20"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>96</v>
       </c>
@@ -8679,7 +8681,7 @@
       </c>
       <c r="Q60" s="20"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>112</v>
       </c>
@@ -8729,7 +8731,7 @@
         <v>4.5697133269160801</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>116</v>
       </c>
@@ -8779,7 +8781,7 @@
         <v>7.2397753275811398</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>118</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>4.9552126345490697</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>144</v>
       </c>
@@ -8879,7 +8881,7 @@
         <v>4.8424752209107202</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>148</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>3.0878154824400998</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>152</v>
       </c>
@@ -8979,7 +8981,7 @@
         <v>5.1469674021556902</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>156</v>
       </c>
@@ -9029,7 +9031,7 @@
         <v>3.5573242683592601</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
         <v>190</v>
       </c>
@@ -9079,7 +9081,7 @@
         <v>3.3943322368503202</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>194</v>
       </c>
@@ -9129,7 +9131,7 @@
         <v>5.0059679738305398</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>196</v>
       </c>
@@ -9179,7 +9181,7 @@
         <v>4.6133300384427702</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>214</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>6.1981812489957404</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
         <v>232</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>2.8722849022383801</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>60</v>
       </c>
@@ -9333,7 +9335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>64</v>
       </c>
@@ -9383,7 +9385,7 @@
         <v>9.0688778918625204</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>68</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>7.6061916690159999</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>76</v>
       </c>
@@ -9483,7 +9485,7 @@
         <v>4.2372177988265296</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>94</v>
       </c>
@@ -9534,7 +9536,7 @@
       </c>
       <c r="Q77" s="20"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>100</v>
       </c>
@@ -9584,7 +9586,7 @@
         <v>5.7395647566827099</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>102</v>
       </c>
@@ -9634,7 +9636,7 @@
         <v>5.3534300742210297</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>114</v>
       </c>
@@ -9684,7 +9686,7 @@
         <v>9.7295768376198808</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>120</v>
       </c>
@@ -9734,7 +9736,7 @@
         <v>8.6947880515756992</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>150</v>
       </c>
@@ -9784,7 +9786,7 @@
         <v>4.0360647434114201</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>158</v>
       </c>
@@ -9834,7 +9836,7 @@
         <v>5.2813628943440003</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>168</v>
       </c>
@@ -9884,7 +9886,7 @@
         <v>3.4895327405254801</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>192</v>
       </c>
@@ -9934,7 +9936,7 @@
         <v>5.5200160880878597</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>198</v>
       </c>
@@ -9984,7 +9986,7 @@
         <v>4.8800954697663101</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>202</v>
       </c>
@@ -10034,7 +10036,7 @@
         <v>2.9251422687455402</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>210</v>
       </c>
@@ -10084,7 +10086,7 @@
         <v>2.42538245820317</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>216</v>
       </c>
@@ -10134,7 +10136,7 @@
         <v>4.4784731737226897</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>220</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>5.7490656984358202</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>66</v>
       </c>
@@ -10238,7 +10240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>70</v>
       </c>
@@ -10288,7 +10290,7 @@
         <v>6.0735955196129598</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>72</v>
       </c>
@@ -10338,7 +10340,7 @@
         <v>9.2300605345943705</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>104</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>7.5025200040430704</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
         <v>122</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>5.8571054147328203</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>160</v>
       </c>
@@ -10488,7 +10490,7 @@
         <v>6.2805201242822202</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>162</v>
       </c>
@@ -10538,7 +10540,7 @@
         <v>7.3813155717861596</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>172</v>
       </c>
@@ -10588,7 +10590,7 @@
         <v>3.8946173964400099</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>174</v>
       </c>
@@ -10638,7 +10640,7 @@
         <v>6.2181388824779997</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>200</v>
       </c>
@@ -10688,7 +10690,7 @@
         <v>8.2640787293254601</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
         <v>204</v>
       </c>
@@ -10738,7 +10740,7 @@
         <v>5.3185419215995804</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>206</v>
       </c>
@@ -10788,7 +10790,7 @@
         <v>8.3931112929163199</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
         <v>218</v>
       </c>
@@ -10838,7 +10840,7 @@
         <v>9.6332116258115601</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>222</v>
       </c>
@@ -10888,7 +10890,7 @@
         <v>9.3238686318885495</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
         <v>74</v>
       </c>
@@ -10938,7 +10940,7 @@
         <v>6.8190923282929896</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
         <v>124</v>
       </c>
@@ -10988,7 +10990,7 @@
         <v>9.4329635393035201</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
         <v>176</v>
       </c>
@@ -11038,7 +11040,7 @@
         <v>8.6926434152040706</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>178</v>
       </c>
@@ -11088,7 +11090,7 @@
         <v>4.3228209812698601</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
         <v>180</v>
       </c>
@@ -11138,7 +11140,7 @@
         <v>7.7518409827734098</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>208</v>
       </c>
@@ -11188,7 +11190,7 @@
         <v>9.1841218822786193</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
         <v>224</v>
       </c>
@@ -11238,7 +11240,7 @@
         <v>8.3745801351366307</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
         <v>226</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>11.596156557531099</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
         <v>228</v>
       </c>
@@ -11338,7 +11340,7 @@
         <v>8.0602412396538305</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="36" t="s">
         <v>182</v>
       </c>
@@ -11388,7 +11390,7 @@
         <v>19.6670867253392</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M115" s="49"/>
       <c r="N115" s="49"/>
     </row>
@@ -11409,28 +11411,28 @@
   </sheetPr>
   <dimension ref="A1:Q211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="23" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="44" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>240</v>
       </c>
@@ -11480,7 +11482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>14</v>
       </c>
@@ -11534,7 +11536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -11584,7 +11586,7 @@
         <v>1.0631294485527998</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>282</v>
       </c>
@@ -11634,7 +11636,7 @@
         <v>1.7262370746618001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>78</v>
       </c>
@@ -11684,7 +11686,7 @@
         <v>1.2306503811481702</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -11734,7 +11736,7 @@
         <v>0.95413415367430998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>234</v>
       </c>
@@ -11784,7 +11786,7 @@
         <v>2.27660813041429</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>236</v>
       </c>
@@ -11834,7 +11836,7 @@
         <v>2.0327684611518699</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>243</v>
       </c>
@@ -11888,7 +11890,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>245</v>
       </c>
@@ -11938,7 +11940,7 @@
         <v>2.4147298640094599</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>16</v>
       </c>
@@ -11988,7 +11990,7 @@
         <v>2.8285620665615601</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>20</v>
       </c>
@@ -12038,7 +12040,7 @@
         <v>4.4335333646504331</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>22</v>
       </c>
@@ -12088,7 +12090,7 @@
         <v>2.49923856528636</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>52</v>
       </c>
@@ -12138,7 +12140,7 @@
         <v>3.3799588478509</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>301</v>
       </c>
@@ -12188,7 +12190,7 @@
         <v>1.4323464570796101</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>303</v>
       </c>
@@ -12238,7 +12240,7 @@
         <v>2.7114911432483</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>330</v>
       </c>
@@ -12288,7 +12290,7 @@
         <v>2.04706393901929</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>332</v>
       </c>
@@ -12338,7 +12340,7 @@
         <v>3.4240699802416801</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>82</v>
       </c>
@@ -12388,7 +12390,7 @@
         <v>1.96207813816457</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>128</v>
       </c>
@@ -12438,7 +12440,7 @@
         <v>2.57476881893687</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>140</v>
       </c>
@@ -12488,7 +12490,7 @@
         <v>1.8793751436362802</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>184</v>
       </c>
@@ -12538,7 +12540,7 @@
         <v>1.65257428020958</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>248</v>
       </c>
@@ -12592,7 +12594,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>260</v>
       </c>
@@ -12642,7 +12644,7 @@
         <v>3.0922076211393401</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>18</v>
       </c>
@@ -12692,7 +12694,7 @@
         <v>3.4331063362782297</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>269</v>
       </c>
@@ -12742,7 +12744,7 @@
         <v>3.0235461565700299</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>274</v>
       </c>
@@ -12792,7 +12794,7 @@
         <v>2.84218130141601</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>276</v>
       </c>
@@ -12842,7 +12844,7 @@
         <v>2.6185080794936502</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>54</v>
       </c>
@@ -12892,7 +12894,7 @@
         <v>3.2560430789884798</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
         <v>297</v>
       </c>
@@ -12942,7 +12944,7 @@
         <v>10.411481383653161</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="s">
         <v>305</v>
       </c>
@@ -12992,7 +12994,7 @@
         <v>3.5647016501270339</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="41" t="s">
         <v>321</v>
       </c>
@@ -13042,7 +13044,7 @@
         <v>1.7320083551024599</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="41" t="s">
         <v>325</v>
       </c>
@@ -13092,7 +13094,7 @@
         <v>1.81651278194327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="41" t="s">
         <v>328</v>
       </c>
@@ -13142,7 +13144,7 @@
         <v>1.5664959058849002</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="41" t="s">
         <v>334</v>
       </c>
@@ -13192,7 +13194,7 @@
         <v>5.2892646704471105</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
         <v>338</v>
       </c>
@@ -13242,7 +13244,7 @@
         <v>3.54222805511818</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
         <v>84</v>
       </c>
@@ -13292,7 +13294,7 @@
         <v>3.8907402647830569</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="41" t="s">
         <v>88</v>
       </c>
@@ -13342,7 +13344,7 @@
         <v>3.1523804151953598</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>90</v>
       </c>
@@ -13392,7 +13394,7 @@
         <v>5.2406765746896635</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="41" t="s">
         <v>363</v>
       </c>
@@ -13442,7 +13444,7 @@
         <v>2.59085064055532</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="s">
         <v>368</v>
       </c>
@@ -13492,7 +13494,7 @@
         <v>1.2663097520669</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
         <v>142</v>
       </c>
@@ -13542,7 +13544,7 @@
         <v>2.3415103354334299</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
         <v>383</v>
       </c>
@@ -13592,7 +13594,7 @@
         <v>2.21241315661584</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
         <v>166</v>
       </c>
@@ -13642,7 +13644,7 @@
         <v>2.9736493977729497</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
         <v>188</v>
       </c>
@@ -13692,7 +13694,7 @@
         <v>4.4582634991641319</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="26" t="s">
         <v>250</v>
       </c>
@@ -13746,7 +13748,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
         <v>263</v>
       </c>
@@ -13796,7 +13798,7 @@
         <v>4.4979574985882067</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
         <v>265</v>
       </c>
@@ -13846,7 +13848,7 @@
         <v>4.9399344933842446</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
         <v>271</v>
       </c>
@@ -13896,7 +13898,7 @@
         <v>5.1231005318218426</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>278</v>
       </c>
@@ -13946,7 +13948,7 @@
         <v>3.6836715974215291</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>290</v>
       </c>
@@ -13996,7 +13998,7 @@
         <v>9.4350096301463005</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>56</v>
       </c>
@@ -14046,7 +14048,7 @@
         <v>4.0600698375693156</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>295</v>
       </c>
@@ -14096,7 +14098,7 @@
         <v>4.6106309155509102</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>299</v>
       </c>
@@ -14146,7 +14148,7 @@
         <v>2.7115084036942401</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>58</v>
       </c>
@@ -14196,7 +14198,7 @@
         <v>5.3356812628411179</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>323</v>
       </c>
@@ -14246,7 +14248,7 @@
         <v>5.4589178712052409</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>341</v>
       </c>
@@ -14296,7 +14298,7 @@
         <v>5.1285390121264678</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>347</v>
       </c>
@@ -14346,7 +14348,7 @@
         <v>4.0283580420117611</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
         <v>86</v>
       </c>
@@ -14396,7 +14398,7 @@
         <v>4.1081838799027182</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="26" t="s">
         <v>359</v>
       </c>
@@ -14446,7 +14448,7 @@
         <v>2.9947398828645797</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>365</v>
       </c>
@@ -14496,7 +14498,7 @@
         <v>3.1789264671534401</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
         <v>373</v>
       </c>
@@ -14546,7 +14548,7 @@
         <v>3.6117443969841672</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="26" t="s">
         <v>381</v>
       </c>
@@ -14596,7 +14598,7 @@
         <v>7.42134206213042</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>386</v>
       </c>
@@ -14646,7 +14648,7 @@
         <v>3.45554083306464</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="26" t="s">
         <v>388</v>
       </c>
@@ -14696,7 +14698,7 @@
         <v>2.7633247243389301</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
         <v>190</v>
       </c>
@@ -14746,7 +14748,7 @@
         <v>5.4908281596154502</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>252</v>
       </c>
@@ -14800,7 +14802,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>254</v>
       </c>
@@ -14850,7 +14852,7 @@
         <v>4.9842067676639408</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>258</v>
       </c>
@@ -14900,7 +14902,7 @@
         <v>9.5360736804653001</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>267</v>
       </c>
@@ -14950,7 +14952,7 @@
         <v>5.7042425117626401</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>286</v>
       </c>
@@ -15000,7 +15002,7 @@
         <v>5.0298793916666567</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>293</v>
       </c>
@@ -15050,7 +15052,7 @@
         <v>5.009686631226578</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>308</v>
       </c>
@@ -15100,7 +15102,7 @@
         <v>5.5842522044612801</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>312</v>
       </c>
@@ -15150,7 +15152,7 @@
         <v>3.2603410538913398</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>60</v>
       </c>
@@ -15200,7 +15202,7 @@
         <v>4.351341818205456</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>343</v>
       </c>
@@ -15250,7 +15252,7 @@
         <v>7.9465295135085796</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>345</v>
       </c>
@@ -15300,7 +15302,7 @@
         <v>4.3998939390941691</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>350</v>
       </c>
@@ -15350,7 +15352,7 @@
         <v>3.6916890903467761</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>352</v>
       </c>
@@ -15400,7 +15402,7 @@
         <v>1.8986825887715302</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>356</v>
       </c>
@@ -15450,7 +15452,7 @@
         <v>3.3962123357387499</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>375</v>
       </c>
@@ -15500,7 +15502,7 @@
         <v>3.5793526139120813</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>377</v>
       </c>
@@ -15550,7 +15552,7 @@
         <v>7.5007386292228606</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>392</v>
       </c>
@@ -15600,7 +15602,7 @@
         <v>4.4209085326554654</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>405</v>
       </c>
@@ -15650,7 +15652,7 @@
         <v>6.6406324941320705</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>192</v>
       </c>
@@ -15700,7 +15702,7 @@
         <v>5.94045008243996</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>412</v>
       </c>
@@ -15750,7 +15752,7 @@
         <v>6.0354700805411401</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>414</v>
       </c>
@@ -15800,7 +15802,7 @@
         <v>3.542779931546777</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>256</v>
       </c>
@@ -15854,7 +15856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>288</v>
       </c>
@@ -15904,7 +15906,7 @@
         <v>5.3237489035489709</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>315</v>
       </c>
@@ -15954,7 +15956,7 @@
         <v>5.6598058347895694</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>319</v>
       </c>
@@ -16004,7 +16006,7 @@
         <v>4.5515799456001815</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>354</v>
       </c>
@@ -16054,7 +16056,7 @@
         <v>3.5118302553469922</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>379</v>
       </c>
@@ -16104,7 +16106,7 @@
         <v>6.7211423452685599</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>400</v>
       </c>
@@ -16154,7 +16156,7 @@
         <v>13.968543978767361</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
         <v>408</v>
       </c>
@@ -16204,7 +16206,7 @@
         <v>4.1321509048301719</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>310</v>
       </c>
@@ -16254,7 +16256,7 @@
         <v>7.0698167224735702</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>317</v>
       </c>
@@ -16304,7 +16306,7 @@
         <v>12.102673490998839</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>371</v>
       </c>
@@ -16354,7 +16356,7 @@
         <v>7.9941701596312198</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>390</v>
       </c>
@@ -16404,7 +16406,7 @@
         <v>9.2585644787736303</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>394</v>
       </c>
@@ -16454,7 +16456,7 @@
         <v>6.0083776552162202</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
         <v>410</v>
       </c>
@@ -16504,7 +16506,7 @@
         <v>20.9134090696779</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>398</v>
       </c>
@@ -16554,7 +16556,7 @@
         <v>3.813168286941361</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="36" t="s">
         <v>396</v>
       </c>
@@ -16604,328 +16606,328 @@
         <v>12.60658637928343</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H124" s="10"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H125" s="10"/>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129" s="10"/>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130" s="10"/>
     </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131" s="10"/>
     </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132" s="10"/>
     </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" s="10"/>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134" s="10"/>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135" s="10"/>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136" s="10"/>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137" s="10"/>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138" s="10"/>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139" s="10"/>
     </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140" s="10"/>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141" s="10"/>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142" s="10"/>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143" s="10"/>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144" s="10"/>
     </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H145" s="10"/>
     </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H146" s="10"/>
     </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H147" s="10"/>
     </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H148" s="10"/>
     </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H149" s="10"/>
     </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H150" s="10"/>
     </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H151" s="10"/>
     </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H152" s="10"/>
     </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H153" s="10"/>
     </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H154" s="10"/>
     </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H155" s="10"/>
     </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H156" s="10"/>
     </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H157" s="10"/>
     </row>
-    <row r="158" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H158" s="10"/>
     </row>
-    <row r="159" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H160" s="10"/>
     </row>
-    <row r="161" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H161" s="10"/>
     </row>
-    <row r="162" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H162" s="10"/>
     </row>
-    <row r="163" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H163" s="10"/>
     </row>
-    <row r="164" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H164" s="10"/>
     </row>
-    <row r="165" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H165" s="10"/>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H166" s="10"/>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H167" s="10"/>
     </row>
-    <row r="168" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H168" s="10"/>
     </row>
-    <row r="169" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H169" s="10"/>
     </row>
-    <row r="170" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H170" s="10"/>
     </row>
-    <row r="171" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H171" s="10"/>
     </row>
-    <row r="172" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H172" s="10"/>
     </row>
-    <row r="173" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H173" s="10"/>
     </row>
-    <row r="174" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H174" s="10"/>
     </row>
-    <row r="175" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H175" s="10"/>
     </row>
-    <row r="176" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H176" s="10"/>
     </row>
-    <row r="177" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H177" s="10"/>
     </row>
-    <row r="178" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H178" s="10"/>
     </row>
-    <row r="179" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H179" s="10"/>
     </row>
-    <row r="180" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H180" s="10"/>
     </row>
-    <row r="181" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H181" s="10"/>
     </row>
-    <row r="182" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H182" s="10"/>
     </row>
-    <row r="183" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H183" s="10"/>
     </row>
-    <row r="184" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H184" s="10"/>
     </row>
-    <row r="185" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H185" s="10"/>
     </row>
-    <row r="186" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H186" s="10"/>
     </row>
-    <row r="187" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H187" s="10"/>
     </row>
-    <row r="188" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H188" s="10"/>
     </row>
-    <row r="189" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H189" s="10"/>
     </row>
-    <row r="190" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H190" s="10"/>
     </row>
-    <row r="191" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H191" s="10"/>
     </row>
-    <row r="192" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H192" s="10"/>
     </row>
-    <row r="193" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H193" s="10"/>
     </row>
-    <row r="194" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H194" s="10"/>
     </row>
-    <row r="195" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H195" s="10"/>
     </row>
-    <row r="196" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H196" s="10"/>
     </row>
-    <row r="197" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H197" s="10"/>
     </row>
-    <row r="198" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H198" s="10"/>
     </row>
-    <row r="199" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H199" s="10"/>
     </row>
-    <row r="200" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H200" s="10"/>
     </row>
-    <row r="201" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H201" s="10"/>
     </row>
-    <row r="202" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H202" s="10"/>
     </row>
-    <row r="203" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H203" s="10"/>
     </row>
-    <row r="204" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H204" s="10"/>
     </row>
-    <row r="205" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H205" s="10"/>
     </row>
-    <row r="206" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H206" s="10"/>
     </row>
-    <row r="207" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H207" s="10"/>
     </row>
-    <row r="208" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H208" s="10"/>
     </row>
-    <row r="209" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H209" s="10"/>
     </row>
-    <row r="210" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H210" s="10"/>
     </row>
-    <row r="211" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H211" s="10"/>
     </row>
   </sheetData>
@@ -16938,4 +16940,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>